--- a/Result_data/Result Graphs.xlsx
+++ b/Result_data/Result Graphs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>Precision Avg</t>
   </si>
@@ -110,16 +110,7 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>Kmeans+SVM (DE)</t>
-  </si>
-  <si>
-    <t>SVM(DE)</t>
-  </si>
-  <si>
-    <t>Kmeans+KNN(DE)</t>
-  </si>
-  <si>
-    <t>KNN(DE)</t>
+    <t>how fast?</t>
   </si>
 </sst>
 </file>
@@ -150,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -312,81 +303,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -403,21 +362,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,7 +1285,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.5502958579881692E-2"/>
-                  <c:y val="-"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -10233,10 +10197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9DA08E-1BCC-455E-8A43-2308B4D0F1C2}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10245,77 +10209,125 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="21">
         <v>9.82</v>
       </c>
+      <c r="C2" s="7">
+        <f>$B$10/B2</f>
+        <v>5132.3828920570268</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="19">
-        <v>202.16</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21">
+        <v>52.19</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C10" si="0">$B$10/B3</f>
+        <v>965.70224180877563</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="21">
         <v>734.33</v>
       </c>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>68.633992891479309</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>0.53</v>
       </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>95094.339622641506</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="19">
-        <v>72.69</v>
-      </c>
-      <c r="F6">
-        <v>87</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="21">
+        <v>63.84</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>789.47368421052624</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21">
         <v>70.3</v>
       </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>716.92745376955907</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="B8" s="9">
+        <v>44.87</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>1123.2449297971918</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="B9" s="22">
+        <v>43.64</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>1154.903758020165</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="23">
+        <f>14*3600</f>
+        <v>50400</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result_data/Result Graphs.xlsx
+++ b/Result_data/Result Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class By Class Comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
   <si>
     <t>Precision Avg</t>
   </si>
@@ -112,11 +112,26 @@
   <si>
     <t>how fast?</t>
   </si>
+  <si>
+    <t>Fu's SVM</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>OverAll</t>
+  </si>
+  <si>
+    <t>KMeans_DE_SVM vs DE_SVM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -382,6 +397,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,6 +1060,7 @@
         <c:axId val="425926112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1185,914 +1206,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1834319526627219E-2"/>
-                  <c:y val="0.12927054478301028"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5502958579881692E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.1558185404339252E-2"/>
-                  <c:y val="-2.5854108956602166E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7751479289940975E-2"/>
-                  <c:y val="3.6937349590303982E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$H$9:$H$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Class 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Class 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Class 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Class 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Class By Class Comparison'!$I$9:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-7.4666666666665105E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.3466666666666534E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6333333333332662E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.9600000000000182E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9723865877712033E-3"/>
-                  <c:y val="0.21421975992613113"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.9447731755424065E-3"/>
-                  <c:y val="0.13665743305632516"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7751479289940975E-2"/>
-                  <c:y val="0.24746104797842097"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$H$9:$H$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Class 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Class 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Class 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Class 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Class By Class Comparison'!$J$9:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-1.4300000000000312E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.1333333333332138E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.8100000000000125E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.6133333333333555E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F-Score Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7751479289940791E-2"/>
-                  <c:y val="0.16989843028624191"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.9447731755423336E-3"/>
-                  <c:y val="-7.3868882733150011E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.5779092702169626E-2"/>
-                  <c:y val="0.15143120960295475"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Class By Class Comparison'!$H$9:$H$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Class 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Class 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Class 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Class 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Class By Class Comparison'!$K$9:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-2.0099999999999674E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.369999999999973E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6333333333336011E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.6666666666666607E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5AC7-4ED1-A94D-DD94C9F27E95}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="536088816"/>
-        <c:axId val="536090128"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="536088816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536090128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="536090128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536088816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2783,7 +1896,1664 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$23:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$I$23:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5466666666666526E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7466666666666564E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2633333333333283E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9600000000000191E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7475000000000027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F199-4436-A153-A02953C72E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$23:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$J$23:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4300000000000357E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3133333333333272E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8999999999999027E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0133333333333558E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8666666666666849E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F199-4436-A153-A02953C72E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Score Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$23:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$K$23:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9099999999999691E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8699999999999761E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2366666666666415E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4666666666666615E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6208333333333176E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F199-4436-A153-A02953C72E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="559284808"/>
+        <c:axId val="559284480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="559284808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559284480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559284480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+          <c:min val="-0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559284808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KMeans_DE_SVM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs DE_SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5671585319712536E-3"/>
+                  <c:y val="0.16383663710581836"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.8330980893453707E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8917896329928112E-3"/>
+                  <c:y val="0.14377816639887325"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6753688989784334E-3"/>
+                  <c:y val="0.14301769212332111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$30:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$I$30:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7.4666666666665105E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3466666666666534E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6333333333332662E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9600000000000182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.672499999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EC3-4995-A40F-7A711D4DC05C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$30:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$J$30:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.4300000000000312E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.1333333333332138E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8100000000000125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6133333333333555E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6416666666666968E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EC3-4995-A40F-7A711D4DC05C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Score Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.5671585319712449E-3"/>
+                  <c:y val="-3.5013478444844766E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4593265228906477E-2"/>
+                  <c:y val="-1.4150739613016104E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.5671585319712449E-3"/>
+                  <c:y val="-6.001917460430186E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1350737797956867E-2"/>
+                  <c:y val="-6.0848890506499539E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3EC3-4995-A40F-7A711D4DC05C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Class By Class Comparison'!$H$30:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Class 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Class 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Class 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OverAll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class By Class Comparison'!$K$30:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.0099999999999674E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.369999999999973E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6333333333336011E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6666666666666607E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6208333333332936E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EC3-4995-A40F-7A711D4DC05C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="555002792"/>
+        <c:axId val="555009352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555002792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555009352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555009352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+          <c:min val="-0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555002792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3940,7 +4710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4308,7 +5078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4676,7 +5446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5324,6 +6094,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -7309,7 +8119,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7412,7 +8222,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -7422,7 +8232,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -7432,7 +8242,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -7452,7 +8262,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7463,7 +8273,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7471,7 +8281,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7508,7 +8318,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7532,7 +8342,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7551,7 +8361,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7569,7 +8379,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7577,7 +8387,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7596,7 +8406,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -7614,7 +8424,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7633,7 +8443,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7662,7 +8472,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -7670,7 +8480,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7740,7 +8550,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7766,7 +8576,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7798,7 +8608,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8301,6 +9111,502 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8836,23 +10142,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>497204</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B970381-666B-49C3-BD94-3FD18C71291D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A581E62F-6DEF-4EF9-9568-E076653AD974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8872,23 +10178,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A581E62F-6DEF-4EF9-9568-E076653AD974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F810C4B-6E4F-4184-9A92-B231DD7FCF92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8901,6 +10207,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD238AA-7540-49C9-A342-E00546B85F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9558,23 +10900,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9600,7 +10942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9629,7 +10971,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -9658,7 +11000,7 @@
         <v>5.2000000000000046E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -9687,7 +11029,7 @@
         <v>0.18199999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -9716,19 +11058,19 @@
         <v>6.800000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -9741,20 +11083,12 @@
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -9767,23 +11101,12 @@
       <c r="D9" s="7">
         <v>0.91709999999999969</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <f>B16-B9</f>
-        <v>-7.4666666666665105E-3</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" ref="J9:K12" si="2">C16-C9</f>
-        <v>-1.4300000000000312E-2</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="2"/>
-        <v>-2.0099999999999674E-2</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -9796,23 +11119,12 @@
       <c r="D10" s="7">
         <v>0.90969999999999973</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ref="I10:I12" si="3">B17-B10</f>
-        <v>-3.3466666666666534E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>-7.1333333333332138E-3</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="2"/>
-        <v>-3.369999999999973E-2</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -9825,23 +11137,12 @@
       <c r="D11" s="7">
         <v>0.98136666666666639</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6333333333332662E-3</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.8100000000000125E-2</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="2"/>
-        <v>5.6333333333336011E-3</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -9854,35 +11155,35 @@
       <c r="D12" s="13">
         <v>0.93366666666666664</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="3"/>
-        <v>-2.9600000000000182E-2</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9">
+        <f>AVERAGE(B9:B12)</f>
+        <v>0.93572500000000003</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:D13" si="2">AVERAGE(C9:C12)</f>
+        <v>0.93566666666666687</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>-1.6133333333333555E-2</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.6666666666666607E-2</v>
+        <v>0.93545833333333306</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -9908,7 +11209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -9929,15 +11230,15 @@
         <v>-4.5485148514851637E-2</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:K19" si="4">C23-C30</f>
+        <f t="shared" ref="J16:K19" si="3">C23-C30</f>
         <v>5.9009900990100173E-3</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.0663366336633744E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -9954,19 +11255,19 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I17:I19" si="5">B24-B31</f>
+        <f t="shared" ref="I17:I19" si="4">B24-B31</f>
         <v>7.0386138613861227E-2</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.11512871287128723</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9930693069307086E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -9983,19 +11284,19 @@
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10444554455445532</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.14008910891089077</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17399009900990037</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
@@ -10012,31 +11313,42 @@
         <v>6</v>
       </c>
       <c r="I19" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4059405940594099E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="3"/>
+        <v>8.8841584158416143E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="3"/>
+        <v>-3.5524752475247667E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9">
+        <f>AVERAGE(B16:B19)</f>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:D20" si="5">AVERAGE(C16:C19)</f>
+        <v>0.9192499999999999</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="5"/>
-        <v>-4.4059405940594099E-2</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="4"/>
-        <v>8.8841584158416143E-2</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="4"/>
-        <v>-3.5524752475247667E-2</v>
+        <v>0.91925000000000012</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -10049,8 +11361,20 @@
       <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -10063,8 +11387,23 @@
       <c r="D23" s="7">
         <v>0.80733663366336628</v>
       </c>
+      <c r="H23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="24">
+        <f>B9-B37</f>
+        <v>2.5466666666666526E-2</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" ref="J23:K23" si="6">C9-C37</f>
+        <v>6.4300000000000357E-2</v>
+      </c>
+      <c r="K23" s="26">
+        <f t="shared" si="6"/>
+        <v>3.9099999999999691E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -10077,8 +11416,23 @@
       <c r="D24" s="7">
         <v>0.87393069306930704</v>
       </c>
+      <c r="H24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="24">
+        <f>B10-B38</f>
+        <v>6.7466666666666564E-2</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" ref="J24:K24" si="7">C10-C38</f>
+        <v>7.3133333333333272E-2</v>
+      </c>
+      <c r="K24" s="26">
+        <f t="shared" si="7"/>
+        <v>6.8699999999999761E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -10091,8 +11445,23 @@
       <c r="D25" s="7">
         <v>0.97899009900990042</v>
       </c>
+      <c r="H25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="24">
+        <f>B11-B39</f>
+        <v>-2.2633333333333283E-2</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" ref="J25:K25" si="8">C11-C39</f>
+        <v>-2.8999999999999027E-3</v>
+      </c>
+      <c r="K25" s="26">
+        <f t="shared" si="8"/>
+        <v>1.2366666666666415E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
@@ -10105,20 +11474,50 @@
       <c r="D26" s="13">
         <v>0.81347524752475231</v>
       </c>
+      <c r="H26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="24">
+        <f>B12-B40</f>
+        <v>3.9600000000000191E-2</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" ref="J26:K26" si="9">C12-C40</f>
+        <v>2.0133333333333558E-2</v>
+      </c>
+      <c r="K26" s="26">
+        <f t="shared" si="9"/>
+        <v>2.4666666666666615E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
+      <c r="H27" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="25">
+        <f>B13-B41</f>
+        <v>2.7475000000000027E-2</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" ref="J27:K27" si="10">C13-C41</f>
+        <v>3.8666666666666849E-2</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="10"/>
+        <v>3.6208333333333176E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -10131,8 +11530,20 @@
       <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
@@ -10146,8 +11557,23 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="E30" s="14"/>
+      <c r="H30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="24">
+        <f>B16-B9</f>
+        <v>-7.4666666666665105E-3</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" ref="J30:K30" si="11">C16-C9</f>
+        <v>-1.4300000000000312E-2</v>
+      </c>
+      <c r="K30" s="26">
+        <f t="shared" si="11"/>
+        <v>-2.0099999999999674E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -10160,8 +11586,23 @@
       <c r="D31" s="7">
         <v>0.82399999999999995</v>
       </c>
+      <c r="H31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" ref="I31:I34" si="12">B17-B10</f>
+        <v>-3.3466666666666534E-2</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" ref="J31:J34" si="13">C17-C10</f>
+        <v>-7.1333333333332138E-3</v>
+      </c>
+      <c r="K31" s="26">
+        <f t="shared" ref="K31:K34" si="14">D17-D10</f>
+        <v>-3.369999999999973E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -10174,8 +11615,23 @@
       <c r="D32" s="7">
         <v>0.80500000000000005</v>
       </c>
+      <c r="H32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="12"/>
+        <v>3.6333333333332662E-3</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="13"/>
+        <v>-2.8100000000000125E-2</v>
+      </c>
+      <c r="K32" s="26">
+        <f t="shared" si="14"/>
+        <v>5.6333333333336011E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -10187,6 +11643,126 @@
       </c>
       <c r="D33" s="13">
         <v>0.84899999999999998</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="12"/>
+        <v>-2.9600000000000182E-2</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="13"/>
+        <v>-1.6133333333333555E-2</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" si="14"/>
+        <v>-1.6666666666666607E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="12"/>
+        <v>-1.672499999999999E-2</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" si="13"/>
+        <v>-1.6416666666666968E-2</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="14"/>
+        <v>-1.6208333333332936E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.995</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" ref="B41:D41" si="15">AVERAGE(B37:B40)</f>
+        <v>0.90825</v>
+      </c>
+      <c r="C41" s="25">
+        <f t="shared" si="15"/>
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D41" s="27">
+        <f t="shared" si="15"/>
+        <v>0.89924999999999988</v>
       </c>
     </row>
   </sheetData>
@@ -10197,19 +11773,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9DA08E-1BCC-455E-8A43-2308B4D0F1C2}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -10220,7 +11796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -10232,7 +11808,7 @@
         <v>5132.3828920570268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -10243,8 +11819,12 @@
         <f t="shared" ref="C3:C10" si="0">$B$10/B3</f>
         <v>965.70224180877563</v>
       </c>
+      <c r="D3">
+        <f>B4/B3</f>
+        <v>14.070319984671395</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
@@ -10256,7 +11836,7 @@
         <v>68.633992891479309</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
@@ -10268,7 +11848,7 @@
         <v>95094.339622641506</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
@@ -10279,8 +11859,12 @@
         <f t="shared" si="0"/>
         <v>789.47368421052624</v>
       </c>
+      <c r="D6">
+        <f>B4/B6</f>
+        <v>11.502662907268171</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
@@ -10292,7 +11876,7 @@
         <v>716.92745376955907</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
@@ -10304,7 +11888,7 @@
         <v>1123.2449297971918</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
@@ -10316,7 +11900,7 @@
         <v>1154.903758020165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
@@ -10343,17 +11927,17 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10397,7 +11981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -10441,7 +12025,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -10485,7 +12069,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -10529,7 +12113,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10543,7 +12127,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -10587,7 +12171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10631,7 +12215,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -10655,7 +12239,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -10669,7 +12253,7 @@
         <v>0.6552</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -10683,7 +12267,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
@@ -10715,7 +12299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
@@ -10747,7 +12331,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
